--- a/MyFantalega/ServerLega/Quotazioni.xlsx
+++ b/MyFantalega/ServerLega/Quotazioni.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Source\Repos\progettoIngegneriaDelSoftware\MyFantalega\ServerLega\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E7CEE-8968-43CA-B2FA-F74C211095DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+    <workbookView xWindow="636" yWindow="600" windowWidth="27492" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutti" sheetId="1" r:id="rId1"/>
@@ -1651,8 +1657,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1705,6 +1711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1752,7 +1761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1785,9 +1794,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1820,6 +1846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1995,14 +2038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="B2:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
@@ -2012,7 +2055,7 @@
     <col min="7" max="7" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2035,1180 +2078,1180 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>277</v>
+        <v>1964</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>785</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>647</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>38</v>
-      </c>
-      <c r="G7">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
       <c r="F8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>441</v>
+        <v>704</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>23</v>
-      </c>
       <c r="F11">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>568</v>
+        <v>2200</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>17</v>
       </c>
       <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>376</v>
+        <v>645</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>22</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>704</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>22</v>
       </c>
       <c r="F14">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2200</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>467</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>469</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15">
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
         <v>17</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>645</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>375</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2085</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>22</v>
-      </c>
-      <c r="F16">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
         <v>14</v>
       </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>402</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>467</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>26</v>
-      </c>
-      <c r="G19">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>475</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>21</v>
-      </c>
-      <c r="F20">
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>367</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>2267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>2061</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
         <v>17</v>
       </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>469</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>19</v>
-      </c>
       <c r="F23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>375</v>
+        <v>2655</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>299</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
         <v>16</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>536</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26">
-        <v>19</v>
       </c>
       <c r="F26">
         <v>14</v>
       </c>
       <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1964</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>397</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>779</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>788</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>785</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>309</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>647</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="E34">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>410</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>408</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>406</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>409</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="F27">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>322</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2002</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>441</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>568</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>475</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2267</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2061</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
         <v>38</v>
       </c>
-      <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2085</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>152</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
-      <c r="F31">
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
         <v>17</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>608</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>652</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>26</v>
-      </c>
-      <c r="G34">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>367</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>16</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36">
-        <v>17</v>
-      </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2655</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>17</v>
-      </c>
-      <c r="F37">
-        <v>14</v>
-      </c>
-      <c r="G37">
+      <c r="G44">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2214</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>184</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>299</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>335</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>18</v>
-      </c>
-      <c r="G41">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>397</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>250</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>14</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2179</v>
+        <v>478</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
       <c r="E45">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>536</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>608</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>652</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
         <v>15</v>
       </c>
-      <c r="F45">
-        <v>9</v>
-      </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>392</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>795</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
         <v>15</v>
-      </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>779</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>788</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
-      </c>
-      <c r="F48">
-        <v>9</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>795</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
-        <v>15</v>
-      </c>
-      <c r="F49">
-        <v>16</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>247</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-      <c r="F50">
-        <v>12</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>350</v>
-      </c>
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51">
-        <v>14</v>
       </c>
       <c r="F51">
         <v>16</v>
       </c>
       <c r="G51">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>387</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52">
         <v>15</v>
       </c>
-      <c r="E52">
-        <v>14</v>
-      </c>
       <c r="F52">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>798</v>
       </c>
@@ -3231,7 +3274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15</v>
       </c>
@@ -3254,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>265</v>
       </c>
@@ -3277,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2209</v>
       </c>
@@ -3300,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>413</v>
       </c>
@@ -3323,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>487</v>
       </c>
@@ -3346,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>388</v>
       </c>
@@ -3369,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>111</v>
       </c>
@@ -3392,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2215</v>
       </c>
@@ -3415,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>332</v>
       </c>
@@ -3438,7 +3481,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1996</v>
       </c>
@@ -3461,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2155</v>
       </c>
@@ -3484,7 +3527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>312</v>
       </c>
@@ -3507,7 +3550,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>789</v>
       </c>
@@ -3530,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>316</v>
       </c>
@@ -3553,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3576,7 +3619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>218</v>
       </c>
@@ -3599,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>282</v>
       </c>
@@ -3622,7 +3665,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2310</v>
       </c>
@@ -3645,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2288</v>
       </c>
@@ -3668,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>621</v>
       </c>
@@ -3691,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2016</v>
       </c>
@@ -3714,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>662</v>
       </c>
@@ -3737,7 +3780,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1896</v>
       </c>
@@ -3760,7 +3803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1850</v>
       </c>
@@ -3783,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>237</v>
       </c>
@@ -3806,7 +3849,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2201</v>
       </c>
@@ -3829,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2306</v>
       </c>
@@ -3852,7 +3895,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>27</v>
       </c>
@@ -3875,7 +3918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>606</v>
       </c>
@@ -3898,7 +3941,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>245</v>
       </c>
@@ -3921,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>472</v>
       </c>
@@ -3944,7 +3987,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>383</v>
       </c>
@@ -3967,7 +4010,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1934</v>
       </c>
@@ -3990,7 +4033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>509</v>
       </c>
@@ -4013,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>513</v>
       </c>
@@ -4036,7 +4079,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>459</v>
       </c>
@@ -4059,7 +4102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>286</v>
       </c>
@@ -4082,7 +4125,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1891</v>
       </c>
@@ -4105,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>697</v>
       </c>
@@ -4128,7 +4171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>338</v>
       </c>
@@ -4151,7 +4194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>342</v>
       </c>
@@ -4174,7 +4217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1972</v>
       </c>
@@ -4197,7 +4240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2263</v>
       </c>
@@ -4220,7 +4263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2172</v>
       </c>
@@ -4243,7 +4286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1987</v>
       </c>
@@ -4266,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2287</v>
       </c>
@@ -4289,7 +4332,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2012</v>
       </c>
@@ -4312,7 +4355,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1939</v>
       </c>
@@ -4335,7 +4378,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>183</v>
       </c>
@@ -4358,7 +4401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1997</v>
       </c>
@@ -4381,7 +4424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2178</v>
       </c>
@@ -4404,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1889</v>
       </c>
@@ -4427,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>142</v>
       </c>
@@ -4450,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>460</v>
       </c>
@@ -4473,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>294</v>
       </c>
@@ -4496,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>695</v>
       </c>
@@ -4519,7 +4562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2116</v>
       </c>
@@ -4542,7 +4585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>112</v>
       </c>
@@ -4565,7 +4608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -4588,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>235</v>
       </c>
@@ -4611,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>172</v>
       </c>
@@ -4634,7 +4677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2188</v>
       </c>
@@ -4657,7 +4700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>464</v>
       </c>
@@ -4680,7 +4723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2065</v>
       </c>
@@ -4703,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>529</v>
       </c>
@@ -4726,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>713</v>
       </c>
@@ -4749,7 +4792,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>556</v>
       </c>
@@ -4772,7 +4815,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>557</v>
       </c>
@@ -4795,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>22</v>
       </c>
@@ -4818,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
@@ -4841,7 +4884,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2649</v>
       </c>
@@ -4864,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>531</v>
       </c>
@@ -4887,7 +4930,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>532</v>
       </c>
@@ -4910,7 +4953,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1974</v>
       </c>
@@ -4933,7 +4976,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>41</v>
       </c>
@@ -4956,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>484</v>
       </c>
@@ -4979,7 +5022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>572</v>
       </c>
@@ -5002,7 +5045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2309</v>
       </c>
@@ -5025,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>708</v>
       </c>
@@ -5048,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>492</v>
       </c>
@@ -5071,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>140</v>
       </c>
@@ -5094,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2169</v>
       </c>
@@ -5117,7 +5160,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>288</v>
       </c>
@@ -5140,7 +5183,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>706</v>
       </c>
@@ -5163,7 +5206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>253</v>
       </c>
@@ -5186,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>257</v>
       </c>
@@ -5209,7 +5252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1866</v>
       </c>
@@ -5232,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1847</v>
       </c>
@@ -5255,7 +5298,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2130</v>
       </c>
@@ -5278,7 +5321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1870</v>
       </c>
@@ -5301,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1874</v>
       </c>
@@ -5324,7 +5367,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1906</v>
       </c>
@@ -5347,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>121</v>
       </c>
@@ -5370,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>404</v>
       </c>
@@ -5393,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>530</v>
       </c>
@@ -5416,7 +5459,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2008</v>
       </c>
@@ -5439,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2645</v>
       </c>
@@ -5462,7 +5505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2646</v>
       </c>
@@ -5485,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>631</v>
       </c>
@@ -5508,7 +5551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>560</v>
       </c>
@@ -5531,7 +5574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2327</v>
       </c>
@@ -5554,7 +5597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2323</v>
       </c>
@@ -5577,7 +5620,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>280</v>
       </c>
@@ -5600,7 +5643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>378</v>
       </c>
@@ -5623,7 +5666,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2719</v>
       </c>
@@ -5646,7 +5689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1958</v>
       </c>
@@ -5669,7 +5712,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2198</v>
       </c>
@@ -5692,7 +5735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2175</v>
       </c>
@@ -5715,7 +5758,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>506</v>
       </c>
@@ -5738,7 +5781,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>95</v>
       </c>
@@ -5761,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2315</v>
       </c>
@@ -5784,7 +5827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>287</v>
       </c>
@@ -5807,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2280</v>
       </c>
@@ -5830,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>588</v>
       </c>
@@ -5853,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>780</v>
       </c>
@@ -5876,7 +5919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1999</v>
       </c>
@@ -5899,7 +5942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1931</v>
       </c>
@@ -5922,7 +5965,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>493</v>
       </c>
@@ -5945,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>301</v>
       </c>
@@ -5968,7 +6011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2160</v>
       </c>
@@ -5991,7 +6034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>28</v>
       </c>
@@ -6014,7 +6057,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>440</v>
       </c>
@@ -6037,7 +6080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>374</v>
       </c>
@@ -6060,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>644</v>
       </c>
@@ -6083,7 +6126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>118</v>
       </c>
@@ -6106,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1901</v>
       </c>
@@ -6129,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>150</v>
       </c>
@@ -6152,7 +6195,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6175,7 +6218,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>366</v>
       </c>
@@ -6198,7 +6241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1933</v>
       </c>
@@ -6221,7 +6264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>238</v>
       </c>
@@ -6244,7 +6287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>331</v>
       </c>
@@ -6267,7 +6310,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>470</v>
       </c>
@@ -6290,7 +6333,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2658</v>
       </c>
@@ -6313,7 +6356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>264</v>
       </c>
@@ -6336,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2317</v>
       </c>
@@ -6359,7 +6402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -6382,7 +6425,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>382</v>
       </c>
@@ -6405,7 +6448,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>722</v>
       </c>
@@ -6428,7 +6471,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1882</v>
       </c>
@@ -6451,7 +6494,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2271</v>
       </c>
@@ -6474,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>252</v>
       </c>
@@ -6497,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>78</v>
       </c>
@@ -6520,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2273</v>
       </c>
@@ -6543,7 +6586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>578</v>
       </c>
@@ -6566,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>817</v>
       </c>
@@ -6589,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2261</v>
       </c>
@@ -6612,7 +6655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>222</v>
       </c>
@@ -6635,7 +6678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2594</v>
       </c>
@@ -6658,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2720</v>
       </c>
@@ -6681,7 +6724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>357</v>
       </c>
@@ -6704,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>169</v>
       </c>
@@ -6727,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>581</v>
       </c>
@@ -6750,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>99</v>
       </c>
@@ -6773,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>101</v>
       </c>
@@ -6796,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>105</v>
       </c>
@@ -6819,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2181</v>
       </c>
@@ -6842,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>333</v>
       </c>
@@ -6865,7 +6908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1857</v>
       </c>
@@ -6888,7 +6931,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>627</v>
       </c>
@@ -6911,7 +6954,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>170</v>
       </c>
@@ -6934,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>702</v>
       </c>
@@ -6957,7 +7000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>463</v>
       </c>
@@ -6980,7 +7023,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1995</v>
       </c>
@@ -7003,7 +7046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>526</v>
       </c>
@@ -7026,7 +7069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>528</v>
       </c>
@@ -7049,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2265</v>
       </c>
@@ -7072,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2205</v>
       </c>
@@ -7095,7 +7138,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1986</v>
       </c>
@@ -7118,7 +7161,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2290</v>
       </c>
@@ -7141,7 +7184,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2284</v>
       </c>
@@ -7164,7 +7207,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>215</v>
       </c>
@@ -7187,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2187</v>
       </c>
@@ -7210,7 +7253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1973</v>
       </c>
@@ -7233,7 +7276,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1879</v>
       </c>
@@ -7256,7 +7299,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2190</v>
       </c>
@@ -7279,7 +7322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>453</v>
       </c>
@@ -7302,7 +7345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>483</v>
       </c>
@@ -7325,7 +7368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>790</v>
       </c>
@@ -7348,7 +7391,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>552</v>
       </c>
@@ -7371,7 +7414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>106</v>
       </c>
@@ -7394,7 +7437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2653</v>
       </c>
@@ -7417,7 +7460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1895</v>
       </c>
@@ -7440,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2104</v>
       </c>
@@ -7463,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2062</v>
       </c>
@@ -7486,7 +7529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>329</v>
       </c>
@@ -7509,7 +7552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>285</v>
       </c>
@@ -7532,7 +7575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2083</v>
       </c>
@@ -7555,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2165</v>
       </c>
@@ -7578,7 +7621,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1865</v>
       </c>
@@ -7601,7 +7644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>224</v>
       </c>
@@ -7624,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>49</v>
       </c>
@@ -7647,7 +7690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>787</v>
       </c>
@@ -7670,7 +7713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>74</v>
       </c>
@@ -7693,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2197</v>
       </c>
@@ -7716,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>21</v>
       </c>
@@ -7739,7 +7782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>669</v>
       </c>
@@ -7762,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>20</v>
       </c>
@@ -7785,7 +7828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2072</v>
       </c>
@@ -7808,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>433</v>
       </c>
@@ -7831,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>236</v>
       </c>
@@ -7854,7 +7897,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>801</v>
       </c>
@@ -7877,7 +7920,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>300</v>
       </c>
@@ -7900,7 +7943,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2659</v>
       </c>
@@ -7923,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2274</v>
       </c>
@@ -7946,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2302</v>
       </c>
@@ -7969,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2325</v>
       </c>
@@ -7992,7 +8035,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>566</v>
       </c>
@@ -8015,7 +8058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>643</v>
       </c>
@@ -8038,7 +8081,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2163</v>
       </c>
@@ -8061,7 +8104,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>540</v>
       </c>
@@ -8084,7 +8127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2279</v>
       </c>
@@ -8107,7 +8150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>45</v>
       </c>
@@ -8130,7 +8173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>575</v>
       </c>
@@ -8153,7 +8196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>54</v>
       </c>
@@ -8176,7 +8219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2656</v>
       </c>
@@ -8199,7 +8242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1952</v>
       </c>
@@ -8222,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2662</v>
       </c>
@@ -8245,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>824</v>
       </c>
@@ -8268,7 +8311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2006</v>
       </c>
@@ -8291,7 +8334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>521</v>
       </c>
@@ -8314,7 +8357,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>546</v>
       </c>
@@ -8337,7 +8380,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>256</v>
       </c>
@@ -8360,7 +8403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>390</v>
       </c>
@@ -8383,7 +8426,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>353</v>
       </c>
@@ -8406,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>365</v>
       </c>
@@ -8429,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>295</v>
       </c>
@@ -8452,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>358</v>
       </c>
@@ -8475,7 +8518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>292</v>
       </c>
@@ -8498,7 +8541,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>261</v>
       </c>
@@ -8521,7 +8564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2164</v>
       </c>
@@ -8544,7 +8587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1898</v>
       </c>
@@ -8567,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2141</v>
       </c>
@@ -8590,7 +8633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>251</v>
       </c>
@@ -8613,7 +8656,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1869</v>
       </c>
@@ -8636,7 +8679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>615</v>
       </c>
@@ -8659,7 +8702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>50</v>
       </c>
@@ -8682,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1852</v>
       </c>
@@ -8705,7 +8748,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1859</v>
       </c>
@@ -8728,7 +8771,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2011</v>
       </c>
@@ -8751,7 +8794,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>438</v>
       </c>
@@ -8774,7 +8817,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>58</v>
       </c>
@@ -8797,7 +8840,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1967</v>
       </c>
@@ -8820,7 +8863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2193</v>
       </c>
@@ -8843,7 +8886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>494</v>
       </c>
@@ -8866,7 +8909,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1978</v>
       </c>
@@ -8889,7 +8932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>428</v>
       </c>
@@ -8912,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>813</v>
       </c>
@@ -8935,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>626</v>
       </c>
@@ -8958,7 +9001,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2111</v>
       </c>
@@ -8981,7 +9024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2301</v>
       </c>
@@ -9004,7 +9047,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>778</v>
       </c>
@@ -9027,7 +9070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1839</v>
       </c>
@@ -9050,7 +9093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1982</v>
       </c>
@@ -9073,7 +9116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>533</v>
       </c>
@@ -9096,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2086</v>
       </c>
@@ -9119,7 +9162,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>380</v>
       </c>
@@ -9142,7 +9185,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2073</v>
       </c>
@@ -9165,7 +9208,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -9188,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2097</v>
       </c>
@@ -9211,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>156</v>
       </c>
@@ -9234,7 +9277,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2114</v>
       </c>
@@ -9257,7 +9300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>610</v>
       </c>
@@ -9280,7 +9323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2322</v>
       </c>
@@ -9303,7 +9346,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>141</v>
       </c>
@@ -9326,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2318</v>
       </c>
@@ -9349,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2320</v>
       </c>
@@ -9372,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2285</v>
       </c>
@@ -9395,7 +9438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2289</v>
       </c>
@@ -9418,7 +9461,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>418</v>
       </c>
@@ -9441,7 +9484,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>765</v>
       </c>
@@ -9464,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>551</v>
       </c>
@@ -9487,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2335</v>
       </c>
@@ -9510,7 +9553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>729</v>
       </c>
@@ -9533,7 +9576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>76</v>
       </c>
@@ -9556,7 +9599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>517</v>
       </c>
@@ -9579,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1868</v>
       </c>
@@ -9602,7 +9645,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>455</v>
       </c>
@@ -9625,7 +9668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>226</v>
       </c>
@@ -9648,7 +9691,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2177</v>
       </c>
@@ -9671,7 +9714,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>104</v>
       </c>
@@ -9694,7 +9737,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2037</v>
       </c>
@@ -9717,7 +9760,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>419</v>
       </c>
@@ -9740,7 +9783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2174</v>
       </c>
@@ -9763,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2210</v>
       </c>
@@ -9786,7 +9829,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1871</v>
       </c>
@@ -9809,7 +9852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2014</v>
       </c>
@@ -9832,7 +9875,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>827</v>
       </c>
@@ -9855,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>372</v>
       </c>
@@ -9878,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>775</v>
       </c>
@@ -9901,7 +9944,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1976</v>
       </c>
@@ -9924,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2661</v>
       </c>
@@ -9947,7 +9990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2652</v>
       </c>
@@ -9970,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2642</v>
       </c>
@@ -9993,7 +10036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>555</v>
       </c>
@@ -10016,7 +10059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>61</v>
       </c>
@@ -10039,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2286</v>
       </c>
@@ -10062,7 +10105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2324</v>
       </c>
@@ -10085,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>605</v>
       </c>
@@ -10108,7 +10151,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2196</v>
       </c>
@@ -10131,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>127</v>
       </c>
@@ -10154,7 +10197,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2167</v>
       </c>
@@ -10177,7 +10220,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>611</v>
       </c>
@@ -10200,7 +10243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2296</v>
       </c>
@@ -10223,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>583</v>
       </c>
@@ -10246,7 +10289,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>622</v>
       </c>
@@ -10269,7 +10312,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1979</v>
       </c>
@@ -10292,7 +10335,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2192</v>
       </c>
@@ -10315,7 +10358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2660</v>
       </c>
@@ -10338,7 +10381,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>490</v>
       </c>
@@ -10361,7 +10404,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>630</v>
       </c>
@@ -10384,7 +10427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2129</v>
       </c>
@@ -10407,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>394</v>
       </c>
@@ -10430,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>395</v>
       </c>
@@ -10453,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>144</v>
       </c>
@@ -10476,7 +10519,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>11</v>
       </c>
@@ -10499,7 +10542,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2168</v>
       </c>
@@ -10522,7 +10565,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>319</v>
       </c>
@@ -10545,7 +10588,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>327</v>
       </c>
@@ -10568,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>262</v>
       </c>
@@ -10591,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>198</v>
       </c>
@@ -10614,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2208</v>
       </c>
@@ -10637,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>461</v>
       </c>
@@ -10660,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2204</v>
       </c>
@@ -10683,7 +10726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>119</v>
       </c>
@@ -10706,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>232</v>
       </c>
@@ -10729,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2166</v>
       </c>
@@ -10752,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2003</v>
       </c>
@@ -10775,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>60</v>
       </c>
@@ -10798,7 +10841,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2191</v>
       </c>
@@ -10821,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2293</v>
       </c>
@@ -10844,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1955</v>
       </c>
@@ -10867,7 +10910,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>633</v>
       </c>
@@ -10890,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>92</v>
       </c>
@@ -10913,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2650</v>
       </c>
@@ -10936,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2654</v>
       </c>
@@ -10959,7 +11002,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2195</v>
       </c>
@@ -10982,7 +11025,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2040</v>
       </c>
@@ -11005,7 +11048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>40</v>
       </c>
@@ -11028,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>217</v>
       </c>
@@ -11051,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1930</v>
       </c>
@@ -11074,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>133</v>
       </c>
@@ -11097,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2170</v>
       </c>
@@ -11120,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>574</v>
       </c>
@@ -11143,7 +11186,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2297</v>
       </c>
@@ -11166,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2329</v>
       </c>
@@ -11189,7 +11232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>420</v>
       </c>
@@ -11212,7 +11255,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2206</v>
       </c>
@@ -11235,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2171</v>
       </c>
@@ -11258,7 +11301,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2336</v>
       </c>
@@ -11281,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2651</v>
       </c>
@@ -11304,7 +11347,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2664</v>
       </c>
@@ -11327,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2015</v>
       </c>
@@ -11350,7 +11393,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>640</v>
       </c>
@@ -11373,7 +11416,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2007</v>
       </c>
@@ -11396,7 +11439,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2087</v>
       </c>
@@ -11419,7 +11462,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>491</v>
       </c>
@@ -11442,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>663</v>
       </c>
@@ -11465,7 +11508,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>138</v>
       </c>
@@ -11488,7 +11531,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2239</v>
       </c>
@@ -11511,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2241</v>
       </c>
@@ -11534,7 +11577,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2120</v>
       </c>
@@ -11557,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2161</v>
       </c>
@@ -11580,7 +11623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2244</v>
       </c>
@@ -11603,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>57</v>
       </c>
@@ -11626,7 +11669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1858</v>
       </c>
@@ -11649,7 +11692,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>305</v>
       </c>
@@ -11672,7 +11715,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2076</v>
       </c>
@@ -11695,7 +11738,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>173</v>
       </c>
@@ -11718,7 +11761,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2665</v>
       </c>
@@ -11741,7 +11784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>297</v>
       </c>
@@ -11764,7 +11807,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1992</v>
       </c>
@@ -11787,7 +11830,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2304</v>
       </c>
@@ -11810,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>124</v>
       </c>
@@ -11833,7 +11876,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2146</v>
       </c>
@@ -11856,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>720</v>
       </c>
@@ -11879,7 +11922,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2249</v>
       </c>
@@ -11902,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2156</v>
       </c>
@@ -11925,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>97</v>
       </c>
@@ -11948,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1890</v>
       </c>
@@ -11971,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2251</v>
       </c>
@@ -11994,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1917</v>
       </c>
@@ -12017,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2127</v>
       </c>
@@ -12040,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1921</v>
       </c>
@@ -12063,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>248</v>
       </c>
@@ -12086,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>543</v>
       </c>
@@ -12109,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>317</v>
       </c>
@@ -12132,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>318</v>
       </c>
@@ -12155,7 +12198,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1935</v>
       </c>
@@ -12178,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>216</v>
       </c>
@@ -12201,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1863</v>
       </c>
@@ -12224,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>386</v>
       </c>
@@ -12247,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>159</v>
       </c>
@@ -12270,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>451</v>
       </c>
@@ -12293,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1970</v>
       </c>
@@ -12316,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>510</v>
       </c>
@@ -12339,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2255</v>
       </c>
@@ -12362,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2256</v>
       </c>
@@ -12385,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>542</v>
       </c>
@@ -12408,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>609</v>
       </c>
@@ -12431,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2211</v>
       </c>
@@ -12454,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>821</v>
       </c>
@@ -12477,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>481</v>
       </c>
@@ -12500,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2294</v>
       </c>
@@ -12523,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2295</v>
       </c>
@@ -12546,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2305</v>
       </c>
@@ -12569,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2331</v>
       </c>
@@ -12592,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2330</v>
       </c>
@@ -12615,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>362</v>
       </c>
@@ -12638,7 +12681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2303</v>
       </c>
@@ -12661,7 +12704,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2312</v>
       </c>
@@ -12684,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2313</v>
       </c>
@@ -12707,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2212</v>
       </c>
@@ -12730,7 +12773,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>612</v>
       </c>
@@ -12753,7 +12796,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1984</v>
       </c>
@@ -12776,7 +12819,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>770</v>
       </c>
@@ -12799,7 +12842,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2216</v>
       </c>
@@ -12822,7 +12865,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2644</v>
       </c>
@@ -12845,7 +12888,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1856</v>
       </c>
@@ -12868,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2663</v>
       </c>
@@ -12891,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2060</v>
       </c>
@@ -12914,7 +12957,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>514</v>
       </c>
@@ -12937,7 +12980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>197</v>
       </c>
@@ -12960,7 +13003,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2180</v>
       </c>
@@ -12983,7 +13026,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>356</v>
       </c>
@@ -13006,7 +13049,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2052</v>
       </c>
@@ -13029,7 +13072,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>323</v>
       </c>
@@ -13052,7 +13095,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>100</v>
       </c>
@@ -13075,7 +13118,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>13</v>
       </c>
@@ -13098,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2162</v>
       </c>
@@ -13121,7 +13164,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1872</v>
       </c>
@@ -13144,7 +13187,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2185</v>
       </c>
@@ -13167,7 +13210,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>116</v>
       </c>
@@ -13190,7 +13233,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2075</v>
       </c>
@@ -13213,7 +13256,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>267</v>
       </c>
@@ -13236,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>334</v>
       </c>
@@ -13259,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1873</v>
       </c>
@@ -13282,7 +13325,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>600</v>
       </c>
@@ -13305,7 +13348,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>524</v>
       </c>
@@ -13328,7 +13371,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2213</v>
       </c>
@@ -13351,7 +13394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2648</v>
       </c>
@@ -13374,7 +13417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2266</v>
       </c>
@@ -13397,7 +13440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>405</v>
       </c>
@@ -13420,7 +13463,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>632</v>
       </c>
@@ -13443,7 +13486,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>371</v>
       </c>
@@ -13466,7 +13509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2121</v>
       </c>
@@ -13489,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2133</v>
       </c>
@@ -13512,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2316</v>
       </c>
@@ -13535,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>726</v>
       </c>
@@ -13558,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>629</v>
       </c>
@@ -13581,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2332</v>
       </c>
@@ -13604,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2333</v>
       </c>
@@ -13627,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2334</v>
       </c>
@@ -13650,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>767</v>
       </c>
@@ -13673,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2048</v>
       </c>
@@ -13696,7 +13739,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2657</v>
       </c>
@@ -13719,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2718</v>
       </c>
@@ -13742,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>505</v>
       </c>
@@ -13765,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>344</v>
       </c>
@@ -13788,7 +13831,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2038</v>
       </c>
@@ -13811,7 +13854,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1880</v>
       </c>
@@ -13834,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1880</v>
       </c>
@@ -13858,6 +13901,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G52">
+    <sortCondition descending="1" ref="B2:B52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>